--- a/data/results/results_best.xlsx
+++ b/data/results/results_best.xlsx
@@ -7,8 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PETR4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="VALE3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PETR4.SA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="VALE3.SA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ITUB4.SA" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="BBDC4.SA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ABEV3.SA" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="BBAS3.SA" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="WEGE3.SA" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="PRIO3.SA" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="B3SA3.SA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="SUZB3.SA" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,26 +492,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[5, 10]</t>
+          <t>[20, 40]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.057129488194744</v>
+        <v>1.057129770606934</v>
       </c>
       <c r="D2" t="n">
-        <v>1.184564285628397</v>
+        <v>0.6988149169257837</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9081178347939545</v>
+        <v>-1.489770341413749</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1309730157254965</v>
+        <v>0.3082004805000697</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7845642856283969</v>
+        <v>0.5388149169257836</v>
       </c>
     </row>
     <row r="3">
@@ -514,176 +522,176 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[20, 50]</t>
+          <t>[20, 35]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.057129488194744</v>
+        <v>1.057129770606934</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7376867318267285</v>
+        <v>0.6676144781327215</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.463697910000144</v>
+        <v>-1.603423221687237</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3042001552467352</v>
+        <v>0.335200360057275</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5976867318267285</v>
+        <v>0.4876144781327215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SMA</t>
+          <t>WMA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[20, 45]</t>
+          <t>[10, 20]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.057129488194744</v>
+        <v>1.057129770606934</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7274676247939095</v>
+        <v>0.7398543774117995</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.28744588677138</v>
+        <v>-1.207599959421299</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2798681645312812</v>
+        <v>0.37876342928575</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5874676247939095</v>
+        <v>0.4398543774117995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SMA</t>
+          <t>WMA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[5, 15]</t>
+          <t>[10, 25]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.057129488194744</v>
+        <v>1.057129770606934</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8788631875440671</v>
+        <v>0.6953197990044104</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4671538847538056</v>
+        <v>-1.53731239695568</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2894885452472996</v>
+        <v>0.3893030489888752</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5588631875440671</v>
+        <v>0.4353197990044104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WMA</t>
+          <t>SMA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[20, 50]</t>
+          <t>[20, 30]</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.057129488194744</v>
+        <v>1.057129770606934</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7353297495578912</v>
+        <v>0.6880757934672213</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.299710082852685</v>
+        <v>-1.396006132409747</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3568929621180524</v>
+        <v>0.3425588258287435</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5553297495578913</v>
+        <v>0.4280757934672212</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SMA</t>
+          <t>WMA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[20, 40]</t>
+          <t>[20, 30]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.057129488194744</v>
+        <v>1.057129770606934</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6988150603128991</v>
+        <v>0.6668781583636206</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.489769292078637</v>
+        <v>-1.671089571186477</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3082005103860828</v>
+        <v>0.4250352464602147</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5388150603128991</v>
+        <v>0.4068781583636206</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SMA</t>
+          <t>WMA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[20, 35]</t>
+          <t>[20, 40]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.057129488194744</v>
+        <v>1.057129770606934</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6676145619411602</v>
+        <v>0.5785895390331438</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.603422647696343</v>
+        <v>-2.155929221816916</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3352005126965519</v>
+        <v>0.4449853692967708</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4876145619411602</v>
+        <v>0.3785895390331438</v>
       </c>
     </row>
     <row r="9">
@@ -694,56 +702,56 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[5, 25]</t>
+          <t>[10, 25]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.057129488194744</v>
+        <v>1.057129770606934</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7252789843706369</v>
+        <v>0.605161295662739</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.344836113798753</v>
+        <v>-2.124739682354725</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3693720913242822</v>
+        <v>0.4619504431051112</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4652789843706369</v>
+        <v>0.345161295662739</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WMA</t>
+          <t>SMA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[10, 30]</t>
+          <t>[10, 20]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.057129488194744</v>
+        <v>1.057129770606934</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7045554855710389</v>
+        <v>0.6404902717225548</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.489600076786104</v>
+        <v>-1.836101396114922</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3921495401100515</v>
+        <v>0.4504667162810079</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4445554855710389</v>
+        <v>0.3404902717225548</v>
       </c>
     </row>
     <row r="11">
@@ -754,356 +762,387 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>[20, 35]</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1.057129770606934</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.587213253467414</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-2.27783949524993</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4568672991209521</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.327213253467414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Indicator</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameters</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Return_Market</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Return_Strategy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Trades</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sharpe</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Max_Drawdown</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[10, 25]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9114508977812952</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.26035384941351</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.148982557326177</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2204553253993486</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.08035384941351</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>[10, 20]</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>0.9114508977812952</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.232032904666196</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.040601399940496</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.22958585478473</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.052032904666196</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[10, 20]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9114508977812952</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.200599415109401</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9409404187694317</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2286456867501196</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.000599415109401</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[20, 30]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9114508977812952</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.138649272816114</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6900898991325407</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.200903254780527</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9786492728161141</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[10, 25]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9114508977812952</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.166666368038308</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8010519649492608</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2341195695364243</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9666663680383085</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[20, 40]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9114508977812952</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9949165499640451</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.06732133612192685</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1815724219144413</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8549165499640451</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[20, 40]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9114508977812952</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9509280237147658</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1626834699835917</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2184327290203642</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8309280237147658</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[20, 35]</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9114508977812952</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9705983662794619</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.06511671015465531</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2060244870533723</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8105983662794619</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[20, 30]</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9114508977812952</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9696981670961864</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.06594565129835911</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1858665942335455</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.7896981670961865</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[20, 35]</t>
+        </is>
+      </c>
       <c r="C11" t="n">
-        <v>1.057129488194744</v>
+        <v>0.9114508977812952</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7398538011452634</v>
+        <v>0.8423281587501117</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.207603978845661</v>
+        <v>-0.7830178083517042</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3787639135757532</v>
+        <v>0.2753111725824751</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4398538011452635</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>WMA</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[10, 25]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1.057129488194744</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.69531992034347</v>
-      </c>
-      <c r="E12" t="n">
-        <v>13</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-1.537312150991188</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.389302900591088</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.43531992034347</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SMA</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>[20, 30]</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1.057129488194744</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.6880756159252905</v>
-      </c>
-      <c r="E13" t="n">
-        <v>13</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-1.396007329251321</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.3425588407923384</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.4280756159252905</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SMA</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[5, 20]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1.057129488194744</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.7147409629394735</v>
-      </c>
-      <c r="E14" t="n">
-        <v>15</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-1.385543929111919</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.3843885602189218</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.4147409629394735</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>WMA</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[20, 30]</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1.057129488194744</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.6668783739073096</v>
-      </c>
-      <c r="E15" t="n">
-        <v>13</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-1.671088498685904</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.4250352065877494</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.4068783739073096</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>WMA</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[20, 45]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1.057129488194744</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.6065778690791243</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-1.970530172182106</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.3934221309208757</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.4065778690791242</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>SMA</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[5, 30]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1.057129488194744</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.6664819695861036</v>
-      </c>
-      <c r="E17" t="n">
-        <v>13</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-1.71320890603604</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.41369725552954</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.4064819695861036</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>WMA</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[20, 40]</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1.057129488194744</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.5785893326171506</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-2.155930601019906</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.4449854164061063</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.3785893326171506</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>SMA</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[10, 30]</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1.057129488194744</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.6353981876988715</v>
-      </c>
-      <c r="E19" t="n">
-        <v>13</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-1.886675420529827</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.4291317441246713</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.3753981876988715</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>SMA</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[10, 25]</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1.057129488194744</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.6051608615979251</v>
-      </c>
-      <c r="E20" t="n">
-        <v>13</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-2.124743362183402</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.4619508313720322</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.3451608615979251</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>SMA</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[10, 20]</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1.057129488194744</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.6404902143793175</v>
-      </c>
-      <c r="E21" t="n">
-        <v>15</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-1.836102263819475</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.4504666967070782</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.3404902143793175</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>WMA</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>[20, 35]</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1.057129488194744</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5872135798852919</v>
-      </c>
-      <c r="E22" t="n">
-        <v>13</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-2.277837359279453</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.4568670607419544</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.3272135798852919</v>
+        <v>0.6823281587501117</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +1156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,26 +1214,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[20, 50]</t>
+          <t>[20, 30]</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9418607127000183</v>
+        <v>0.9418606031137564</v>
       </c>
       <c r="D2" t="n">
-        <v>1.122236025410679</v>
+        <v>1.071335843248819</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6634631434397281</v>
+        <v>0.4352661790564893</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1759230130112616</v>
+        <v>0.1778981310936009</v>
       </c>
       <c r="H2" t="n">
-        <v>1.042236025410679</v>
+        <v>0.9513358432488187</v>
       </c>
     </row>
     <row r="3">
@@ -1205,26 +1244,387 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[20, 45]</t>
+          <t>[20, 35]</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9418607127000183</v>
+        <v>0.9418606031137564</v>
       </c>
       <c r="D3" t="n">
-        <v>1.062290897994087</v>
+        <v>1.042047184209429</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3027025978895697</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1618193319630583</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9220471842094285</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[20, 40]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9418606031137564</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.010085668085176</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1535995385905039</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2060773006430167</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8900856680851762</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[20, 40]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9418606031137564</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9773905020365304</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.004564859724370041</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2070582083587872</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8573905020365304</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[10, 25]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9418606031137564</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8871072818966617</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.4644268754284339</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2629712893662919</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.7071072818966617</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[10, 25]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9418606031137564</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9323393595837727</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.2339284969653551</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2498911602443332</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6923393595837727</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[20, 35]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9418606031137564</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8422404899739281</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.7600642130175533</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3078260759091446</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.6822404899739281</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[10, 20]</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9418606031137564</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9354233873153249</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.2153282298141782</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.251076114694532</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.6754233873153249</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[20, 30]</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9418606031137564</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8089107642416794</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.9755905911571635</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3355703742586648</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.6489107642416794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[10, 20]</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9418606031137564</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8109135646659352</v>
+      </c>
+      <c r="E11" t="n">
+        <v>12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.9272423047427079</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3400154627651048</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5709135646659352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Indicator</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameters</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Return_Market</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Return_Strategy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Trades</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sharpe</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Max_Drawdown</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[20, 35]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1.43805992994416</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.345348717513896</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.698878695647899</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.08717143278967428</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.225348717513896</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[20, 40]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.43805992994416</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.291872726128188</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3902858505040602</v>
+        <v>1.486546707193747</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1974483411503825</v>
+        <v>0.07702574197336058</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9622908979940871</v>
+        <v>1.191872726128188</v>
       </c>
     </row>
     <row r="4">
@@ -1239,22 +1639,1466 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9418607127000183</v>
+        <v>1.43805992994416</v>
       </c>
       <c r="D4" t="n">
-        <v>1.071335918515884</v>
+        <v>1.254552817147841</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.277400892145122</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1126855828656146</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.094552817147841</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[10, 20]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.43805992994416</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.294294503390563</v>
+      </c>
+      <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.401471888103017</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.07404083577778918</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.054294503390563</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[20, 30]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.43805992994416</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.190308427314064</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.014132052672423</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1289104650872717</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.050308427314064</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[20, 40]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.43805992994416</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.166276994942503</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9122039513410187</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1285994775192654</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.026276994942503</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[20, 35]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.43805992994416</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.134878668391806</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7670545513712398</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1312558579059796</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9948786683918059</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[10, 25]</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1.43805992994416</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.187063777940227</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9872244182223717</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1061470254582801</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9870637779402271</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[10, 25]</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.43805992994416</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.16398924786545</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9029063944331394</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1131736370367163</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9839892478654502</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[10, 20]</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1.43805992994416</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.066934060562893</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4412061506433074</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.09587610418651263</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.846934060562893</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Indicator</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameters</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Return_Market</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Return_Strategy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Trades</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sharpe</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Max_Drawdown</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[20, 30]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1.250896933910526</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.639276115361523</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.909138027713219</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1365160586682738</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.539276115361523</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[10, 25]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.250896933910526</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.566873776463221</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.748785554688046</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1303755867896607</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.426873776463221</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[20, 40]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.250896933910526</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.512736328548025</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.629491509404283</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.197459111473183</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.412736328548025</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[10, 25]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.250896933910526</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.514693971442064</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.680045114531703</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1353156003653851</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.374693971442063</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[20, 35]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.250896933910526</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.473216740435562</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.52032245875965</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1948924154520493</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.373216740435562</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[20, 30]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.250896933910526</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.398837543461289</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.349027537638639</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2312102272570173</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.298837543461289</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[20, 35]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.250896933910526</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.350250419170173</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.234704859605082</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2545503584595815</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.250250419170173</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[20, 40]</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1.250896933910526</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.330958733015359</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.18713292850894</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2404620840181253</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.230958733015359</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[10, 20]</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.250896933910526</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.396877073009808</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.398579626964799</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1242597912981054</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.216877073009808</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[10, 20]</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1.250896933910526</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.358202929416618</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.145280894834032</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1800163456955908</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.158202929416618</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Indicator</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameters</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Return_Market</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Return_Strategy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Trades</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sharpe</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Max_Drawdown</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[10, 20]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9698432803883301</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.228600010426865</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.138491669380625</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1151179482714525</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.048600010426865</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[10, 25]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9698432803883301</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.147044839597753</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8065170470345009</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1700255262320485</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.007044839597753</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[10, 25]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9698432803883301</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.126888281560367</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6703435567759402</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1246928096999858</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9668882815603673</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[20, 35]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9698432803883301</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.040060387309861</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3096269447559991</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1978046145490987</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9200603873098606</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[10, 20]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9698432803883301</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.144288350452937</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.7452960288858005</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1254813960811378</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9042883504529371</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[20, 30]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9698432803883301</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.040442949053306</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3021385241930514</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1874862560207037</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9004429490533065</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[20, 40]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9698432803883301</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9847441570685308</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.002393321901337786</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2065648784142238</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8647441570685308</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[20, 40]</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9698432803883301</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.927237138681367</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.3600479554840758</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2105231520938972</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8272371386813671</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[20, 35]</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9698432803883301</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9024096639761536</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.505748357679509</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2240948510701896</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.7824096639761536</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[20, 30]</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9698432803883301</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8848352101276352</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.6178645153980125</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2430772087183052</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.7448352101276352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Indicator</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameters</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Return_Market</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Return_Strategy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Trades</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sharpe</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Max_Drawdown</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[20, 40]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8523307304418628</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9405788573876707</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.1818461337278666</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1586021014006639</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8405788573876707</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[20, 40]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8523307304418628</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9383046051750273</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.1984295886668463</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1750662738923016</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7983046051750273</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[20, 35]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8523307304418628</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8774639984865367</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.5092419182052181</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.186248120791955</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7774639984865367</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[10, 20]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8523307304418628</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9586471529291304</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.06202635030829046</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2486734646308481</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7386471529291304</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[20, 30]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8523307304418628</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8893899331617829</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.4313373699238965</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2400577775261345</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.7293899331617829</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[20, 35]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8523307304418628</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8642655859021211</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.5866795012835531</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2017406522395428</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6842655859021212</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[10, 25]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8523307304418628</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8831231678067882</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.456513554212861</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2474333086084247</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.6631231678067883</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[10, 20]</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8523307304418628</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8740794547437777</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.4953890069940599</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.2520455744686088</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.6540794547437777</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[20, 30]</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8523307304418628</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8505110987639011</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.6571062065100207</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2170886950364595</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.6305110987639011</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[10, 25]</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8523307304418628</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8348762216872493</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.6675048825177414</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2992659648989932</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.6148762216872493</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Indicator</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameters</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Return_Market</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Return_Strategy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Trades</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sharpe</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Max_Drawdown</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[20, 40]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1.174388957038104</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.29787717509928</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.255676254785566</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1212494108939705</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.19787717509928</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[10, 20]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.174388957038104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.320684014272346</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.085444672630654</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2609745065029881</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.080684014272346</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[20, 35]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.174388957038104</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.193697906440177</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4352665124821136</v>
+        <v>0.8732376083054223</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1778981310936013</v>
+        <v>0.2014654370087475</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9513359185158844</v>
+        <v>1.073697906440177</v>
       </c>
     </row>
     <row r="5">
@@ -1265,32 +3109,393 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>[20, 30]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1.174388957038104</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.253454478320702</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.080094091879217</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1576889613528517</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.073454478320703</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[10, 20]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.174388957038104</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.250064035789167</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8972096367235118</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3226916234445099</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9900640357891675</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[10, 25]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.174388957038104</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.24325047312703</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8837841328495855</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.2922110746091812</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9832504731270304</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[20, 40]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.174388957038104</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.024436410324733</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2243964975513321</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3345422268208455</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9044364103247325</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>[20, 35]</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>1.174388957038104</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.010987294151191</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1759750083370704</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3376129498794754</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8709872941511912</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[10, 25]</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.174388957038104</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.030239957537552</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.2486719137161013</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3678929334869942</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8502399575375517</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[20, 30]</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1.174388957038104</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9449040200853993</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.06196353386520828</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3641827659264963</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.7849040200853993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Indicator</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameters</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Return_Market</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Return_Strategy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Trades</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sharpe</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Max_Drawdown</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[10, 20]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8127894564624001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.000185472413842</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1368083524360276</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2315227290780745</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7801854724138424</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[10, 25]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8127894564624001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9195233387108043</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.1803162606059302</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2271324882864282</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7195233387108042</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[20, 30]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8127894564624001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8419350143912245</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.4530619654110382</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2763895133336892</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6819350143912245</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[20, 40]</t>
+        </is>
+      </c>
       <c r="C5" t="n">
-        <v>0.9418607127000183</v>
+        <v>0.8127894564624001</v>
       </c>
       <c r="D5" t="n">
-        <v>1.042047183220887</v>
+        <v>0.7907730697441027</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3027025826984152</v>
+        <v>-0.6778548938700997</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1618193319630586</v>
+        <v>0.3282246655074854</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9220471832208866</v>
+        <v>0.6707730697441027</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SMA</t>
+          <t>WMA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1299,22 +3504,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9418607127000183</v>
+        <v>0.8127894564624001</v>
       </c>
       <c r="D6" t="n">
-        <v>1.01008559931349</v>
+        <v>0.7988048947516131</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1535992344337424</v>
+        <v>-0.7020420053638445</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2060773514213998</v>
+        <v>0.3010849903684047</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8900855993134899</v>
+        <v>0.6588048947516131</v>
       </c>
     </row>
     <row r="7">
@@ -1325,56 +3530,56 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[20, 40]</t>
+          <t>[10, 20]</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9418607127000183</v>
+        <v>0.8127894564624001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9773905004770108</v>
+        <v>0.8511832912392459</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>0.004564827902704418</v>
+        <v>-0.4598479362846407</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2070582610309494</v>
+        <v>0.2976781243284962</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8573905004770108</v>
+        <v>0.6111832912392459</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WMA</t>
+          <t>SMA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[20, 50]</t>
+          <t>[20, 35]</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9418607127000183</v>
+        <v>0.8127894564624001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9653107495507456</v>
+        <v>0.7297127079838752</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.06469621405623978</v>
+        <v>-0.9401498352439673</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2275091077981979</v>
+        <v>0.3775964616618817</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8453107495507456</v>
+        <v>0.5897127079838752</v>
       </c>
     </row>
     <row r="9">
@@ -1385,26 +3590,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[10, 30]</t>
+          <t>[10, 25]</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9418607127000183</v>
+        <v>0.8127894564624001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9962895439405537</v>
+        <v>0.8164415631178544</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08504946787501388</v>
+        <v>-0.6108811658531588</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1919193606456736</v>
+        <v>0.3139207665632355</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8162895439405538</v>
+        <v>0.5764415631178544</v>
       </c>
     </row>
     <row r="10">
@@ -1415,26 +3620,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[20, 45]</t>
+          <t>[20, 35]</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9418607127000183</v>
+        <v>0.8127894564624001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9427743020946716</v>
+        <v>0.7350558232159699</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.162810230704514</v>
+        <v>-0.9850215322720483</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2451865911356107</v>
+        <v>0.3288665170984517</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8027743020946716</v>
+        <v>0.5750558232159698</v>
       </c>
     </row>
     <row r="11">
@@ -1445,356 +3650,387 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[5, 30]</t>
+          <t>[20, 30]</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9418607127000183</v>
+        <v>0.8127894564624001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9609328240421823</v>
+        <v>0.6394376468990578</v>
       </c>
       <c r="E11" t="n">
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1041087896956453</v>
+        <v>-1.380388832902022</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2291945996608352</v>
+        <v>0.4454267664861468</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8009328240421822</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SMA</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>[10, 30]</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9418607127000183</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.8733025797902797</v>
-      </c>
-      <c r="E12" t="n">
+        <v>0.4794376468990578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Indicator</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Parameters</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Return_Market</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Return_Strategy</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Trades</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sharpe</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Max_Drawdown</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[20, 35]</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9331250261968393</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.101924546341619</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.4613207318936552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2491926191447361</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.001924546341618</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[20, 40]</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9331250261968393</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.063799613766088</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3508478644133993</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2462817641101169</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9637996137660879</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[20, 40]</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9331250261968393</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.042273789111305</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.287299753157341</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2769571271855415</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9422737891113054</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[20, 35]</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9331250261968393</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.020703090130519</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2098525039209753</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2511056444309672</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9007030901305185</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[20, 30]</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9331250261968393</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.977567921389317</v>
+      </c>
+      <c r="E6" t="n">
         <v>8</v>
       </c>
-      <c r="F12" t="n">
-        <v>-0.5599868446047295</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.3051214921813196</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.7133025797902797</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SMA</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="F6" t="n">
+        <v>0.04727560286784942</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2099150339611979</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.817567921389317</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[10, 20]</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9331250261968393</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9621028762472736</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.0273979219565079</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1931115307533409</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7221028762472737</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[20, 30]</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9331250261968393</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8731292738258041</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.3599921720322249</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2808959050166652</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.713129273825804</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SMA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>[10, 25]</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>0.9418607127000183</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.8871076474396321</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.4644251085390357</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.2629711857112931</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.7071076474396321</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SMA</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[5, 25]</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9418607127000183</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.9367825414225692</v>
-      </c>
-      <c r="E14" t="n">
-        <v>12</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.2438287060714534</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.2329654445147903</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.6967825414225692</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>WMA</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="C9" t="n">
+        <v>0.9331250261968393</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8810946161833451</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.3658589660836227</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1856509034597172</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.6610946161833451</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>[10, 25]</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>0.9418607127000183</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.9323393608944436</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.2339286214618888</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.2498911602443338</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.6923393608944436</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>SMA</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[5, 20]</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9418607127000183</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.9474344649522559</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="C10" t="n">
+        <v>0.9331250261968393</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8419150811397246</v>
+      </c>
+      <c r="E10" t="n">
         <v>13</v>
       </c>
-      <c r="F16" t="n">
-        <v>-0.1508268701856422</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.2238267101707596</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.6874344649522559</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>WMA</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[20, 35]</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9418607127000183</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.8422404975398649</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.760064223966602</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.3078261145653722</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.6822404975398648</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>WMA</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="F10" t="n">
+        <v>-0.5486575258112253</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1857810740749544</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5819150811397246</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>WMA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>[10, 20]</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>0.9418607127000183</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.9354232610404007</v>
-      </c>
-      <c r="E18" t="n">
-        <v>13</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.2153289268302854</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.2510761146945322</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.6754232610404007</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>WMA</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[20, 30]</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9418607127000183</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.8089108240767573</v>
-      </c>
-      <c r="E19" t="n">
-        <v>8</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.9755903964493059</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.3355703681862692</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.6489108240767573</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>SMA</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[5, 15]</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9418607127000183</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.9157992617055032</v>
-      </c>
-      <c r="E20" t="n">
+      <c r="C11" t="n">
+        <v>0.9331250261968393</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8606098218900886</v>
+      </c>
+      <c r="E11" t="n">
         <v>15</v>
       </c>
-      <c r="F20" t="n">
-        <v>-0.291779209145116</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.2872512693960537</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.6157992617055033</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>SMA</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[10, 20]</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9418607127000183</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.810913401018392</v>
-      </c>
-      <c r="E21" t="n">
-        <v>12</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.9272436691555683</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.3400155495990266</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.5709134010183921</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>SMA</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>[5, 10]</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9418607127000183</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.9793952343879399</v>
-      </c>
-      <c r="E22" t="n">
-        <v>22</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.01192216376194857</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.1463823057358855</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.5393952343879398</v>
+      <c r="F11" t="n">
+        <v>-0.4550425456434058</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1900960195778737</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5606098218900886</v>
       </c>
     </row>
   </sheetData>
